--- a/mosip_master/xlsx/reason_list.xlsx
+++ b/mosip_master/xlsx/reason_list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="102">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -200,6 +200,132 @@
   </si>
   <si>
     <t xml:space="preserve">بعض التفاصيل الديموغرافية متطابقة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಯಸ್ಸು-ಫೋಟೋ ಹೊಂದಿಕೆಯಾಗುವುದಿಲ್ಲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಯಸ್ಸು ಮತ್ತು ಫೋಟೋ ನಡುವೆ ಹೊಂದಾಣಿಕೆಯಿಲ್ಲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಲಿಂಗ-ಫೋಟೋ ಹೊಂದಿಕೆಯಾಗುವುದಿಲ್ಲ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಲಿಂಗ ಮತ್ತು ಫೋಟೋ ನಡುವಿನ ಲಿಂಗ-ಫೋಟೋ ಹೊಂದಾಣಿಕೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಮಾನ್ಯವಾದ ವಿಳಾಸ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಮಾನ್ಯವಾದ ವಿಳಾಸ ಕಂಡುಬಂದಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಕಲಿ ನೋಂದಣಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನಕಲಿ ನೋಂದಣಿ ಕಂಡುಬಂದಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಇತರರು</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಎಲ್ಲಾ ವಿವರಗಳು ಹೊಂದಾಣಿಕೆಯಾಗುತ್ತಿವೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಎಲ್ಲಾ ಜನಸಂಖ್ಯಾ ವಿವರಗಳು ಹೊಂದಾಣಿಕೆಯಾಗುತ್ತಿವೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಛಾಯಾಚಿತ್ರ ಮಾತ್ರ ಹೊಂದಾಣಿಕೆಯಾಗುತ್ತಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೆಲವು ಜನಸಂಖ್ಯಾ ವಿವರಗಳು ಹೊಂದಾಣಿಕೆಯಾಗುತ್ತಿವೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">उम्र-फोटो बेमेल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">उम्र और फोटो के बीच बेमेल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जेंडर-फोटो बेमेल</t>
+  </si>
+  <si>
+    <t xml:space="preserve">जेंडर और फोटो के बीच जेंडर-फोटो मिसमैच</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अमान्य पता</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iअमान्य पता मिला</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डुप्लीकेट पंजीकरण</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डुप्लीकेट पंजीकरण मिला</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अन्य</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सभी विवरण मेल खा रहे हैं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सभी जनसांख्यिकीय विवरण मेल खा रहे हैं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केवल फोटोग्राफ मेल खा रहा है</t>
+  </si>
+  <si>
+    <t xml:space="preserve">कुछ जनसांख्यिकीय विवरण मिलान कर रहे हैं</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வயது-புகைப்படம் பொருந்தவில்லை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">வயதுக்கும் புகைப்படத்திற்கும் இடையே பொருந்தாதது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாலினம்-புகைப்படம் பொருந்தவில்லை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாலினம் மற்றும் புகைப்படம் இடையே பாலினம்-புகைப்பட பொருத்தமின்மை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தவறான முகவரி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தவறான முகவரி கண்டறியப்பட்டது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">நகல் பதிவு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">நகல் பதிவு கண்டறியப்பட்டது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மற்றவைகள்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அனைத்து விவரங்களும் பொருந்துகின்றன</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அனைத்து மக்கள்தொகை விவரங்களும் பொருந்துகின்றன</t>
+  </si>
+  <si>
+    <t xml:space="preserve">புகைப்படம் மட்டுமே பொருந்துகிறது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சில மக்கள்தொகை விவரங்கள் பொருந்துகின்றன</t>
   </si>
 </sst>
 </file>
@@ -290,7 +416,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -315,6 +441,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,8 +464,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20:D28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,6 +1035,546 @@
         <v>11</v>
       </c>
     </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/mosip_master/xlsx/reason_list.xlsx
+++ b/mosip_master/xlsx/reason_list.xlsx
@@ -464,7 +464,7 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C42" activeCellId="0" sqref="C42"/>
     </sheetView>
   </sheetViews>
